--- a/t/data/Excel/faang_metadata_examples_macleod_horses_20160205.xlsx
+++ b/t/data/Excel/faang_metadata_examples_macleod_horses_20160205.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="2280" windowWidth="25600" windowHeight="16060" tabRatio="612" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="6100" yWindow="2280" windowWidth="25600" windowHeight="16060" tabRatio="612" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="6" r:id="rId1"/>
@@ -1271,7 +1271,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="291">
+  <cellStyleXfs count="292">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1550,6 +1550,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1602,7 +1603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="291">
+  <cellStyles count="292">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1788,6 +1789,7 @@
     <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3365,7 +3367,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -3398,16 +3402,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>317</v>
       </c>
@@ -3421,25 +3429,25 @@
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>321</v>
       </c>
       <c r="B2" t="s">
         <v>322</v>
       </c>
+      <c r="C2" t="s">
+        <v>323</v>
+      </c>
       <c r="D2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17">
+    <row r="3" spans="1:4" ht="17">
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
     </row>
-    <row r="4" spans="1:5" ht="17">
+    <row r="4" spans="1:4" ht="17">
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
     </row>
@@ -3514,11 +3522,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">

--- a/t/data/Excel/faang_metadata_examples_macleod_horses_20160205.xlsx
+++ b/t/data/Excel/faang_metadata_examples_macleod_horses_20160205.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="2280" windowWidth="25600" windowHeight="16060" tabRatio="612" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="612" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="352">
   <si>
     <t>NCBI Taxonomy</t>
   </si>
@@ -511,9 +511,6 @@
     <t>tendon</t>
   </si>
   <si>
-    <t>EFO_0001265 </t>
-  </si>
-  <si>
     <t>Developmental stage</t>
   </si>
   <si>
@@ -649,9 +646,6 @@
     <t>EFO_0001323</t>
   </si>
   <si>
-    <t>EFO_0001266</t>
-  </si>
-  <si>
     <t>H7_pbls</t>
   </si>
   <si>
@@ -1067,6 +1061,30 @@
   </si>
   <si>
     <t>http://www.ebi.ac.uk/ols/beta/ontologies/eol</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>js@example.ac.uk</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>FAANG</t>
+  </si>
+  <si>
+    <t>NCBITaxon_9796</t>
+  </si>
+  <si>
+    <t>PATO_0000383</t>
+  </si>
+  <si>
+    <t>PATO_0000384</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1289,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="292">
+  <cellStyleXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1564,8 +1582,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1602,8 +1626,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="277"/>
   </cellXfs>
-  <cellStyles count="292">
+  <cellStyles count="298">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1790,6 +1815,12 @@
     <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="297" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2234,43 +2265,43 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="26" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2286,30 +2317,31 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C1" sqref="C1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="14"/>
+    <col min="3" max="3" width="27.83203125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1">
+    <row r="1" spans="1:13" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -2317,440 +2349,491 @@
         <v>3</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H2"/>
+      <c r="J2" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>300</v>
-      </c>
-      <c r="G2"/>
-      <c r="I2" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>299</v>
+        <v>348</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>205</v>
       </c>
       <c r="E3" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>300</v>
-      </c>
-      <c r="G3"/>
-      <c r="I3" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="J3" s="13" t="s">
+      <c r="G3" t="s">
+        <v>298</v>
+      </c>
+      <c r="H3"/>
+      <c r="J3" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="L3" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="M3" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="D4" s="14"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="C4" s="10"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="9"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="D5" s="14"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="C5" s="10"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="9"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="D6" s="14"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="C6" s="10"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="9"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="D7" s="14"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="C7" s="10"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="9"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="D8" s="14"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="C8" s="10"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="9"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="D9" s="14"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="C9" s="10"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="9"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="D10" s="14"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="C10" s="10"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="9"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="D11" s="14"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="C11" s="10"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="9"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="D12" s="14"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="C12" s="10"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="9"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="D13" s="14"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="C13" s="10"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="9"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="D14" s="14"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="C14" s="10"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="9"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="D15" s="14"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="C15" s="10"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="9"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="D16" s="14"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="C16" s="10"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="9"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="3:12" s="14" customFormat="1">
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="3:13" s="14" customFormat="1">
       <c r="C17" s="10"/>
-      <c r="F17" s="9"/>
+      <c r="D17" s="10"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="3:12" s="14" customFormat="1">
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="3:13" s="14" customFormat="1">
       <c r="C18" s="10"/>
-      <c r="F18" s="9"/>
+      <c r="D18" s="10"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="3:12" s="14" customFormat="1">
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="3:13" s="14" customFormat="1">
       <c r="C19" s="10"/>
-      <c r="F19" s="9"/>
+      <c r="D19" s="10"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="3:12" s="14" customFormat="1">
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="3:13" s="14" customFormat="1">
       <c r="C20" s="10"/>
-      <c r="F20" s="9"/>
+      <c r="D20" s="10"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="3:12" s="14" customFormat="1">
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" spans="3:13" s="14" customFormat="1">
       <c r="C21" s="10"/>
-      <c r="F21" s="9"/>
+      <c r="D21" s="10"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="10"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="3:12" s="14" customFormat="1">
+      <c r="H21" s="9"/>
+      <c r="I21" s="10"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="9"/>
+    </row>
+    <row r="22" spans="3:13" s="14" customFormat="1">
       <c r="C22" s="10"/>
-      <c r="F22" s="9"/>
+      <c r="D22" s="10"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="9"/>
-    </row>
-    <row r="23" spans="3:12" s="14" customFormat="1">
+      <c r="H22" s="9"/>
+      <c r="I22" s="10"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="3:13" s="14" customFormat="1">
       <c r="C23" s="10"/>
-      <c r="F23" s="9"/>
+      <c r="D23" s="10"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="3:12" s="14" customFormat="1">
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="3:13" s="14" customFormat="1">
       <c r="C24" s="10"/>
-      <c r="F24" s="9"/>
+      <c r="D24" s="10"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="9"/>
-    </row>
-    <row r="25" spans="3:12" s="14" customFormat="1">
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="3:13" s="14" customFormat="1">
       <c r="C25" s="10"/>
-      <c r="F25" s="9"/>
+      <c r="D25" s="10"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="9"/>
-    </row>
-    <row r="26" spans="3:12" s="14" customFormat="1">
+      <c r="H25" s="9"/>
+      <c r="I25" s="10"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="3:13" s="14" customFormat="1">
       <c r="C26" s="10"/>
-      <c r="F26" s="9"/>
+      <c r="D26" s="10"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="3:12" s="14" customFormat="1">
+      <c r="H26" s="9"/>
+      <c r="I26" s="10"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="9"/>
+    </row>
+    <row r="27" spans="3:13" s="14" customFormat="1">
       <c r="C27" s="10"/>
-      <c r="F27" s="9"/>
+      <c r="D27" s="10"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="9"/>
-    </row>
-    <row r="28" spans="3:12" s="14" customFormat="1">
+      <c r="H27" s="9"/>
+      <c r="I27" s="10"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="9"/>
+    </row>
+    <row r="28" spans="3:13" s="14" customFormat="1">
       <c r="C28" s="10"/>
-      <c r="F28" s="9"/>
+      <c r="D28" s="10"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="10"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="9"/>
-    </row>
-    <row r="29" spans="3:12" s="14" customFormat="1">
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="9"/>
+    </row>
+    <row r="29" spans="3:13" s="14" customFormat="1">
       <c r="C29" s="10"/>
-      <c r="F29" s="9"/>
+      <c r="D29" s="10"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="10"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="9"/>
-    </row>
-    <row r="30" spans="3:12" s="14" customFormat="1">
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" spans="3:13" s="14" customFormat="1">
       <c r="C30" s="10"/>
-      <c r="F30" s="9"/>
+      <c r="D30" s="10"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="10"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="9"/>
-    </row>
-    <row r="31" spans="3:12" s="14" customFormat="1">
+      <c r="H30" s="9"/>
+      <c r="I30" s="10"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="9"/>
+    </row>
+    <row r="31" spans="3:13" s="14" customFormat="1">
       <c r="C31" s="10"/>
-      <c r="F31" s="9"/>
+      <c r="D31" s="10"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="10"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="9"/>
-    </row>
-    <row r="32" spans="3:12" s="14" customFormat="1">
+      <c r="H31" s="9"/>
+      <c r="I31" s="10"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="9"/>
+    </row>
+    <row r="32" spans="3:13" s="14" customFormat="1">
       <c r="C32" s="10"/>
-      <c r="F32" s="9"/>
+      <c r="D32" s="10"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="10"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="9"/>
-    </row>
-    <row r="33" spans="3:12" s="14" customFormat="1">
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="9"/>
+    </row>
+    <row r="33" spans="3:13" s="14" customFormat="1">
       <c r="C33" s="10"/>
-      <c r="F33" s="9"/>
+      <c r="D33" s="10"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="10"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="9"/>
-    </row>
-    <row r="34" spans="3:12" s="14" customFormat="1">
+      <c r="H33" s="9"/>
+      <c r="I33" s="10"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="9"/>
+    </row>
+    <row r="34" spans="3:13" s="14" customFormat="1">
       <c r="C34" s="10"/>
-      <c r="F34" s="9"/>
+      <c r="D34" s="10"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="10"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="9"/>
-    </row>
-    <row r="35" spans="3:12" s="14" customFormat="1">
+      <c r="H34" s="9"/>
+      <c r="I34" s="10"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="9"/>
+    </row>
+    <row r="35" spans="3:13" s="14" customFormat="1">
       <c r="C35" s="10"/>
-      <c r="F35" s="9"/>
+      <c r="D35" s="10"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="10"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="9"/>
-    </row>
-    <row r="36" spans="3:12" s="14" customFormat="1">
+      <c r="H35" s="9"/>
+      <c r="I35" s="10"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="9"/>
+    </row>
+    <row r="36" spans="3:13" s="14" customFormat="1">
       <c r="C36" s="10"/>
-      <c r="F36" s="9"/>
+      <c r="D36" s="10"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="10"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="9"/>
-    </row>
-    <row r="37" spans="3:12" s="14" customFormat="1">
+      <c r="H36" s="9"/>
+      <c r="I36" s="10"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="9"/>
+    </row>
+    <row r="37" spans="3:13" s="14" customFormat="1">
       <c r="C37" s="10"/>
-      <c r="F37" s="9"/>
+      <c r="D37" s="10"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="10"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="9"/>
-    </row>
-    <row r="38" spans="3:12" s="14" customFormat="1">
+      <c r="H37" s="9"/>
+      <c r="I37" s="10"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="9"/>
+    </row>
+    <row r="38" spans="3:13" s="14" customFormat="1">
       <c r="C38" s="10"/>
-      <c r="F38" s="9"/>
+      <c r="D38" s="10"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="10"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="9"/>
-    </row>
-    <row r="39" spans="3:12" s="14" customFormat="1">
+      <c r="H38" s="9"/>
+      <c r="I38" s="10"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="9"/>
+    </row>
+    <row r="39" spans="3:13" s="14" customFormat="1">
       <c r="C39" s="10"/>
-      <c r="F39" s="9"/>
+      <c r="D39" s="10"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="10"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="9"/>
-    </row>
-    <row r="40" spans="3:12" s="14" customFormat="1">
+      <c r="H39" s="9"/>
+      <c r="I39" s="10"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="9"/>
+    </row>
+    <row r="40" spans="3:13" s="14" customFormat="1">
       <c r="C40" s="10"/>
-      <c r="F40" s="9"/>
+      <c r="D40" s="10"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="10"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="9"/>
-    </row>
-    <row r="41" spans="3:12" s="14" customFormat="1">
+      <c r="H40" s="9"/>
+      <c r="I40" s="10"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="9"/>
+    </row>
+    <row r="41" spans="3:13" s="14" customFormat="1">
       <c r="C41" s="10"/>
-      <c r="F41" s="9"/>
+      <c r="D41" s="10"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="10"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="9"/>
-    </row>
-    <row r="42" spans="3:12" s="14" customFormat="1">
+      <c r="H41" s="9"/>
+      <c r="I41" s="10"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="9"/>
+    </row>
+    <row r="42" spans="3:13" s="14" customFormat="1">
       <c r="C42" s="10"/>
-      <c r="F42" s="9"/>
+      <c r="D42" s="10"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="10"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="9"/>
-    </row>
-    <row r="43" spans="3:12" s="14" customFormat="1">
+      <c r="H42" s="9"/>
+      <c r="I42" s="10"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="9"/>
+    </row>
+    <row r="43" spans="3:13" s="14" customFormat="1">
       <c r="C43" s="10"/>
-      <c r="F43" s="9"/>
+      <c r="D43" s="10"/>
       <c r="G43" s="9"/>
-      <c r="H43" s="10"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="9"/>
-    </row>
-    <row r="44" spans="3:12" s="14" customFormat="1">
+      <c r="H43" s="9"/>
+      <c r="I43" s="10"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="9"/>
+    </row>
+    <row r="44" spans="3:13" s="14" customFormat="1">
       <c r="C44" s="10"/>
-      <c r="F44" s="9"/>
+      <c r="D44" s="10"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="10"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="9"/>
-    </row>
-    <row r="45" spans="3:12" s="14" customFormat="1">
+      <c r="H44" s="9"/>
+      <c r="I44" s="10"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="9"/>
+    </row>
+    <row r="45" spans="3:13" s="14" customFormat="1">
       <c r="C45" s="10"/>
-      <c r="F45" s="9"/>
+      <c r="D45" s="10"/>
       <c r="G45" s="9"/>
-      <c r="H45" s="10"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="10"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2765,533 +2848,569 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="10" customWidth="1"/>
-    <col min="9" max="10" width="13.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.83203125" style="14"/>
-    <col min="14" max="15" width="10.83203125" style="9"/>
-    <col min="16" max="16" width="10.83203125" style="10"/>
-    <col min="17" max="17" width="10.83203125" style="14"/>
-    <col min="18" max="18" width="10.83203125" style="9"/>
-    <col min="19" max="16384" width="10.83203125" style="14"/>
+    <col min="3" max="3" width="29.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="10" customWidth="1"/>
+    <col min="10" max="11" width="13.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.83203125" style="14"/>
+    <col min="15" max="16" width="10.83203125" style="9"/>
+    <col min="17" max="17" width="10.83203125" style="10"/>
+    <col min="18" max="18" width="10.83203125" style="14"/>
+    <col min="19" max="19" width="10.83203125" style="9"/>
+    <col min="20" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="6" customFormat="1">
+    <row r="1" spans="1:19" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>173</v>
+      <c r="H1" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="D2" s="14"/>
+    <row r="2" spans="1:19">
+      <c r="C2" s="9" t="s">
+        <v>348</v>
+      </c>
       <c r="E2" s="14"/>
-      <c r="F2" s="9"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="9"/>
-      <c r="J2" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="K2" s="24"/>
-      <c r="M2" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="D3" s="14"/>
+      <c r="H2" s="9"/>
+      <c r="K2" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="L2" s="24"/>
+      <c r="N2" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="E3" s="14"/>
-      <c r="F3" s="9"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="9"/>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="D4" s="14"/>
+      <c r="H3" s="9"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:19">
       <c r="E4" s="14"/>
-      <c r="F4" s="9"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="D5" s="14"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="E5" s="14"/>
-      <c r="F5" s="9"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="D6" s="14"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="E6" s="14"/>
-      <c r="F6" s="9"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="D7" s="14"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:19">
       <c r="E7" s="14"/>
-      <c r="F7" s="9"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="D8" s="14"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="E8" s="14"/>
-      <c r="F8" s="9"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="D9" s="14"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:19">
       <c r="E9" s="14"/>
-      <c r="F9" s="9"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="D10" s="14"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:19">
       <c r="E10" s="14"/>
-      <c r="F10" s="9"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="D11" s="14"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:19">
       <c r="E11" s="14"/>
-      <c r="F11" s="9"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="D12" s="14"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:19">
       <c r="E12" s="14"/>
-      <c r="F12" s="9"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="D13" s="14"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="E13" s="14"/>
-      <c r="F13" s="9"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="D14" s="14"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="E14" s="14"/>
-      <c r="F14" s="9"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="D15" s="14"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:19">
       <c r="E15" s="14"/>
-      <c r="F15" s="9"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="D16" s="14"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:19">
       <c r="E16" s="14"/>
-      <c r="F16" s="9"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="2:18" s="14" customFormat="1">
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="2:19" s="14" customFormat="1">
       <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="F17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-      <c r="K17" s="9"/>
-      <c r="N17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="L17" s="9"/>
       <c r="O17" s="9"/>
-      <c r="P17" s="10"/>
-      <c r="R17" s="9"/>
-    </row>
-    <row r="18" spans="2:18" s="14" customFormat="1">
+      <c r="P17" s="9"/>
+      <c r="Q17" s="10"/>
+      <c r="S17" s="9"/>
+    </row>
+    <row r="18" spans="2:19" s="14" customFormat="1">
       <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="F18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-      <c r="K18" s="9"/>
-      <c r="N18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+      <c r="L18" s="9"/>
       <c r="O18" s="9"/>
-      <c r="P18" s="10"/>
-      <c r="R18" s="9"/>
-    </row>
-    <row r="19" spans="2:18" s="14" customFormat="1">
+      <c r="P18" s="9"/>
+      <c r="Q18" s="10"/>
+      <c r="S18" s="9"/>
+    </row>
+    <row r="19" spans="2:19" s="14" customFormat="1">
       <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="F19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
-      <c r="K19" s="9"/>
-      <c r="N19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+      <c r="L19" s="9"/>
       <c r="O19" s="9"/>
-      <c r="P19" s="10"/>
-      <c r="R19" s="9"/>
-    </row>
-    <row r="20" spans="2:18" s="14" customFormat="1">
+      <c r="P19" s="9"/>
+      <c r="Q19" s="10"/>
+      <c r="S19" s="9"/>
+    </row>
+    <row r="20" spans="2:19" s="14" customFormat="1">
       <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="F20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
-      <c r="K20" s="9"/>
-      <c r="N20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+      <c r="L20" s="9"/>
       <c r="O20" s="9"/>
-      <c r="P20" s="10"/>
-      <c r="R20" s="9"/>
-    </row>
-    <row r="21" spans="2:18" s="14" customFormat="1">
+      <c r="P20" s="9"/>
+      <c r="Q20" s="10"/>
+      <c r="S20" s="9"/>
+    </row>
+    <row r="21" spans="2:19" s="14" customFormat="1">
       <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="F21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="10"/>
-      <c r="K21" s="9"/>
-      <c r="N21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10"/>
+      <c r="L21" s="9"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="10"/>
-      <c r="R21" s="9"/>
-    </row>
-    <row r="22" spans="2:18" s="14" customFormat="1">
+      <c r="P21" s="9"/>
+      <c r="Q21" s="10"/>
+      <c r="S21" s="9"/>
+    </row>
+    <row r="22" spans="2:19" s="14" customFormat="1">
       <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="F22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
-      <c r="K22" s="9"/>
-      <c r="N22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10"/>
+      <c r="L22" s="9"/>
       <c r="O22" s="9"/>
-      <c r="P22" s="10"/>
-      <c r="R22" s="9"/>
-    </row>
-    <row r="23" spans="2:18" s="14" customFormat="1">
+      <c r="P22" s="9"/>
+      <c r="Q22" s="10"/>
+      <c r="S22" s="9"/>
+    </row>
+    <row r="23" spans="2:19" s="14" customFormat="1">
       <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="F23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
-      <c r="K23" s="9"/>
-      <c r="N23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
+      <c r="L23" s="9"/>
       <c r="O23" s="9"/>
-      <c r="P23" s="10"/>
-      <c r="R23" s="9"/>
-    </row>
-    <row r="24" spans="2:18" s="14" customFormat="1">
+      <c r="P23" s="9"/>
+      <c r="Q23" s="10"/>
+      <c r="S23" s="9"/>
+    </row>
+    <row r="24" spans="2:19" s="14" customFormat="1">
       <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="F24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
-      <c r="K24" s="9"/>
-      <c r="N24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
+      <c r="L24" s="9"/>
       <c r="O24" s="9"/>
-      <c r="P24" s="10"/>
-      <c r="R24" s="9"/>
-    </row>
-    <row r="25" spans="2:18" s="14" customFormat="1">
+      <c r="P24" s="9"/>
+      <c r="Q24" s="10"/>
+      <c r="S24" s="9"/>
+    </row>
+    <row r="25" spans="2:19" s="14" customFormat="1">
       <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="F25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
-      <c r="K25" s="9"/>
-      <c r="N25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10"/>
+      <c r="L25" s="9"/>
       <c r="O25" s="9"/>
-      <c r="P25" s="10"/>
-      <c r="R25" s="9"/>
-    </row>
-    <row r="26" spans="2:18" s="14" customFormat="1">
+      <c r="P25" s="9"/>
+      <c r="Q25" s="10"/>
+      <c r="S25" s="9"/>
+    </row>
+    <row r="26" spans="2:19" s="14" customFormat="1">
       <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="F26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
-      <c r="K26" s="9"/>
-      <c r="N26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="10"/>
+      <c r="L26" s="9"/>
       <c r="O26" s="9"/>
-      <c r="P26" s="10"/>
-      <c r="R26" s="9"/>
-    </row>
-    <row r="27" spans="2:18" s="14" customFormat="1">
+      <c r="P26" s="9"/>
+      <c r="Q26" s="10"/>
+      <c r="S26" s="9"/>
+    </row>
+    <row r="27" spans="2:19" s="14" customFormat="1">
       <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
-      <c r="F27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
-      <c r="K27" s="9"/>
-      <c r="N27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10"/>
+      <c r="L27" s="9"/>
       <c r="O27" s="9"/>
-      <c r="P27" s="10"/>
-      <c r="R27" s="9"/>
-    </row>
-    <row r="28" spans="2:18" s="14" customFormat="1">
+      <c r="P27" s="9"/>
+      <c r="Q27" s="10"/>
+      <c r="S27" s="9"/>
+    </row>
+    <row r="28" spans="2:19" s="14" customFormat="1">
       <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="F28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="10"/>
-      <c r="K28" s="9"/>
-      <c r="N28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
+      <c r="L28" s="9"/>
       <c r="O28" s="9"/>
-      <c r="P28" s="10"/>
-      <c r="R28" s="9"/>
-    </row>
-    <row r="29" spans="2:18" s="14" customFormat="1">
+      <c r="P28" s="9"/>
+      <c r="Q28" s="10"/>
+      <c r="S28" s="9"/>
+    </row>
+    <row r="29" spans="2:19" s="14" customFormat="1">
       <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="F29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="10"/>
-      <c r="K29" s="9"/>
-      <c r="N29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
+      <c r="L29" s="9"/>
       <c r="O29" s="9"/>
-      <c r="P29" s="10"/>
-      <c r="R29" s="9"/>
-    </row>
-    <row r="30" spans="2:18" s="14" customFormat="1">
+      <c r="P29" s="9"/>
+      <c r="Q29" s="10"/>
+      <c r="S29" s="9"/>
+    </row>
+    <row r="30" spans="2:19" s="14" customFormat="1">
       <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="F30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="10"/>
-      <c r="K30" s="9"/>
-      <c r="N30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="10"/>
+      <c r="L30" s="9"/>
       <c r="O30" s="9"/>
-      <c r="P30" s="10"/>
-      <c r="R30" s="9"/>
-    </row>
-    <row r="31" spans="2:18" s="14" customFormat="1">
+      <c r="P30" s="9"/>
+      <c r="Q30" s="10"/>
+      <c r="S30" s="9"/>
+    </row>
+    <row r="31" spans="2:19" s="14" customFormat="1">
       <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="F31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="10"/>
-      <c r="K31" s="9"/>
-      <c r="N31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10"/>
+      <c r="L31" s="9"/>
       <c r="O31" s="9"/>
-      <c r="P31" s="10"/>
-      <c r="R31" s="9"/>
-    </row>
-    <row r="32" spans="2:18" s="14" customFormat="1">
+      <c r="P31" s="9"/>
+      <c r="Q31" s="10"/>
+      <c r="S31" s="9"/>
+    </row>
+    <row r="32" spans="2:19" s="14" customFormat="1">
       <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="F32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="10"/>
-      <c r="K32" s="9"/>
-      <c r="N32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
+      <c r="L32" s="9"/>
       <c r="O32" s="9"/>
-      <c r="P32" s="10"/>
-      <c r="R32" s="9"/>
-    </row>
-    <row r="33" spans="2:18" s="14" customFormat="1">
+      <c r="P32" s="9"/>
+      <c r="Q32" s="10"/>
+      <c r="S32" s="9"/>
+    </row>
+    <row r="33" spans="2:19" s="14" customFormat="1">
       <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="F33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="10"/>
-      <c r="K33" s="9"/>
-      <c r="N33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="10"/>
+      <c r="L33" s="9"/>
       <c r="O33" s="9"/>
-      <c r="P33" s="10"/>
-      <c r="R33" s="9"/>
-    </row>
-    <row r="34" spans="2:18" s="14" customFormat="1">
+      <c r="P33" s="9"/>
+      <c r="Q33" s="10"/>
+      <c r="S33" s="9"/>
+    </row>
+    <row r="34" spans="2:19" s="14" customFormat="1">
       <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="F34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="10"/>
-      <c r="K34" s="9"/>
-      <c r="N34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="10"/>
+      <c r="L34" s="9"/>
       <c r="O34" s="9"/>
-      <c r="P34" s="10"/>
-      <c r="R34" s="9"/>
-    </row>
-    <row r="35" spans="2:18" s="14" customFormat="1">
+      <c r="P34" s="9"/>
+      <c r="Q34" s="10"/>
+      <c r="S34" s="9"/>
+    </row>
+    <row r="35" spans="2:19" s="14" customFormat="1">
       <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="F35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="10"/>
-      <c r="K35" s="9"/>
-      <c r="N35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="10"/>
+      <c r="L35" s="9"/>
       <c r="O35" s="9"/>
-      <c r="P35" s="10"/>
-      <c r="R35" s="9"/>
-    </row>
-    <row r="36" spans="2:18" s="14" customFormat="1">
+      <c r="P35" s="9"/>
+      <c r="Q35" s="10"/>
+      <c r="S35" s="9"/>
+    </row>
+    <row r="36" spans="2:19" s="14" customFormat="1">
       <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
-      <c r="F36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="10"/>
-      <c r="K36" s="9"/>
-      <c r="N36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="10"/>
+      <c r="L36" s="9"/>
       <c r="O36" s="9"/>
-      <c r="P36" s="10"/>
-      <c r="R36" s="9"/>
-    </row>
-    <row r="37" spans="2:18" s="14" customFormat="1">
+      <c r="P36" s="9"/>
+      <c r="Q36" s="10"/>
+      <c r="S36" s="9"/>
+    </row>
+    <row r="37" spans="2:19" s="14" customFormat="1">
       <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="F37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="10"/>
-      <c r="K37" s="9"/>
-      <c r="N37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="10"/>
+      <c r="L37" s="9"/>
       <c r="O37" s="9"/>
-      <c r="P37" s="10"/>
-      <c r="R37" s="9"/>
-    </row>
-    <row r="38" spans="2:18" s="14" customFormat="1">
+      <c r="P37" s="9"/>
+      <c r="Q37" s="10"/>
+      <c r="S37" s="9"/>
+    </row>
+    <row r="38" spans="2:19" s="14" customFormat="1">
       <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="F38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="10"/>
-      <c r="K38" s="9"/>
-      <c r="N38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="10"/>
+      <c r="L38" s="9"/>
       <c r="O38" s="9"/>
-      <c r="P38" s="10"/>
-      <c r="R38" s="9"/>
-    </row>
-    <row r="39" spans="2:18" s="14" customFormat="1">
+      <c r="P38" s="9"/>
+      <c r="Q38" s="10"/>
+      <c r="S38" s="9"/>
+    </row>
+    <row r="39" spans="2:19" s="14" customFormat="1">
       <c r="B39" s="9"/>
-      <c r="C39" s="10"/>
-      <c r="F39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="10"/>
-      <c r="K39" s="9"/>
-      <c r="N39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="10"/>
+      <c r="L39" s="9"/>
       <c r="O39" s="9"/>
-      <c r="P39" s="10"/>
-      <c r="R39" s="9"/>
-    </row>
-    <row r="40" spans="2:18" s="14" customFormat="1">
+      <c r="P39" s="9"/>
+      <c r="Q39" s="10"/>
+      <c r="S39" s="9"/>
+    </row>
+    <row r="40" spans="2:19" s="14" customFormat="1">
       <c r="B40" s="9"/>
-      <c r="C40" s="10"/>
-      <c r="F40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="10"/>
-      <c r="K40" s="9"/>
-      <c r="N40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="10"/>
+      <c r="L40" s="9"/>
       <c r="O40" s="9"/>
-      <c r="P40" s="10"/>
-      <c r="R40" s="9"/>
-    </row>
-    <row r="41" spans="2:18" s="14" customFormat="1">
+      <c r="P40" s="9"/>
+      <c r="Q40" s="10"/>
+      <c r="S40" s="9"/>
+    </row>
+    <row r="41" spans="2:19" s="14" customFormat="1">
       <c r="B41" s="9"/>
-      <c r="C41" s="10"/>
-      <c r="F41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="10"/>
-      <c r="K41" s="9"/>
-      <c r="N41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="10"/>
+      <c r="L41" s="9"/>
       <c r="O41" s="9"/>
-      <c r="P41" s="10"/>
-      <c r="R41" s="9"/>
-    </row>
-    <row r="42" spans="2:18" s="14" customFormat="1">
+      <c r="P41" s="9"/>
+      <c r="Q41" s="10"/>
+      <c r="S41" s="9"/>
+    </row>
+    <row r="42" spans="2:19" s="14" customFormat="1">
       <c r="B42" s="9"/>
-      <c r="C42" s="10"/>
-      <c r="F42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="10"/>
-      <c r="K42" s="9"/>
-      <c r="N42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10"/>
+      <c r="L42" s="9"/>
       <c r="O42" s="9"/>
-      <c r="P42" s="10"/>
-      <c r="R42" s="9"/>
-    </row>
-    <row r="43" spans="2:18" s="14" customFormat="1">
+      <c r="P42" s="9"/>
+      <c r="Q42" s="10"/>
+      <c r="S42" s="9"/>
+    </row>
+    <row r="43" spans="2:19" s="14" customFormat="1">
       <c r="B43" s="9"/>
-      <c r="C43" s="10"/>
-      <c r="F43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
       <c r="G43" s="9"/>
-      <c r="H43" s="10"/>
-      <c r="K43" s="9"/>
-      <c r="N43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="10"/>
+      <c r="L43" s="9"/>
       <c r="O43" s="9"/>
-      <c r="P43" s="10"/>
-      <c r="R43" s="9"/>
-    </row>
-    <row r="44" spans="2:18" s="14" customFormat="1">
+      <c r="P43" s="9"/>
+      <c r="Q43" s="10"/>
+      <c r="S43" s="9"/>
+    </row>
+    <row r="44" spans="2:19" s="14" customFormat="1">
       <c r="B44" s="9"/>
-      <c r="C44" s="10"/>
-      <c r="F44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="10"/>
-      <c r="K44" s="9"/>
-      <c r="N44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="10"/>
+      <c r="L44" s="9"/>
       <c r="O44" s="9"/>
-      <c r="P44" s="10"/>
-      <c r="R44" s="9"/>
-    </row>
-    <row r="45" spans="2:18" s="14" customFormat="1">
+      <c r="P44" s="9"/>
+      <c r="Q44" s="10"/>
+      <c r="S44" s="9"/>
+    </row>
+    <row r="45" spans="2:19" s="14" customFormat="1">
       <c r="B45" s="9"/>
-      <c r="C45" s="10"/>
-      <c r="F45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="10"/>
       <c r="G45" s="9"/>
-      <c r="H45" s="10"/>
-      <c r="K45" s="9"/>
-      <c r="N45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="10"/>
+      <c r="L45" s="9"/>
       <c r="O45" s="9"/>
-      <c r="P45" s="10"/>
-      <c r="R45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="10"/>
+      <c r="S45" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3319,34 +3438,34 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>309</v>
       </c>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D2">
         <v>1.2</v>
@@ -3365,32 +3484,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>316</v>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="E2" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3404,7 +3540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -3417,30 +3553,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>318</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" t="s">
         <v>321</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>322</v>
-      </c>
-      <c r="C2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D2" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17">
@@ -3472,10 +3608,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C1" s="6"/>
     </row>
@@ -3499,13 +3635,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>327</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -3533,10 +3669,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3544,7 +3680,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3552,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3560,47 +3696,47 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3608,23 +3744,23 @@
         <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -3639,937 +3775,974 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT12"/>
+  <dimension ref="A1:AU12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.83203125" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="21" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="17.1640625" style="20" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" style="21" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="6.83203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" style="19" customWidth="1"/>
-    <col min="14" max="14" width="14" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.83203125" style="19"/>
-    <col min="17" max="17" width="10.83203125" style="20"/>
-    <col min="18" max="18" width="18" style="21" customWidth="1"/>
-    <col min="19" max="20" width="10.83203125" style="21"/>
-    <col min="21" max="21" width="10.83203125" style="19" customWidth="1"/>
-    <col min="22" max="22" width="10.83203125" style="20"/>
-    <col min="23" max="23" width="10.83203125" style="19"/>
-    <col min="24" max="24" width="10.83203125" style="20"/>
-    <col min="25" max="28" width="10.83203125" style="21"/>
-    <col min="29" max="29" width="10.83203125" style="19"/>
-    <col min="30" max="30" width="10.83203125" style="20"/>
-    <col min="31" max="35" width="10.83203125" style="21"/>
-    <col min="36" max="36" width="10.83203125" style="25"/>
-    <col min="37" max="39" width="10.83203125" style="19"/>
-    <col min="40" max="40" width="10.83203125" style="20"/>
-    <col min="41" max="42" width="10.83203125" style="19"/>
-    <col min="43" max="43" width="10.83203125" style="20"/>
-    <col min="44" max="45" width="10.83203125" style="19"/>
-    <col min="46" max="46" width="10.83203125" style="20"/>
-    <col min="47" max="16384" width="10.83203125" style="19"/>
+    <col min="3" max="3" width="27.83203125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="21" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" style="20" customWidth="1"/>
+    <col min="11" max="11" width="18.83203125" style="21" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="20" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14" style="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.83203125" style="19"/>
+    <col min="18" max="18" width="10.83203125" style="20"/>
+    <col min="19" max="19" width="18" style="21" customWidth="1"/>
+    <col min="20" max="21" width="10.83203125" style="21"/>
+    <col min="22" max="22" width="10.83203125" style="19" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" style="20"/>
+    <col min="24" max="24" width="10.83203125" style="19"/>
+    <col min="25" max="25" width="10.83203125" style="20"/>
+    <col min="26" max="29" width="10.83203125" style="21"/>
+    <col min="30" max="30" width="10.83203125" style="19"/>
+    <col min="31" max="31" width="10.83203125" style="20"/>
+    <col min="32" max="36" width="10.83203125" style="21"/>
+    <col min="37" max="37" width="10.83203125" style="25"/>
+    <col min="38" max="40" width="10.83203125" style="19"/>
+    <col min="41" max="41" width="10.83203125" style="20"/>
+    <col min="42" max="43" width="10.83203125" style="19"/>
+    <col min="44" max="44" width="10.83203125" style="20"/>
+    <col min="45" max="46" width="10.83203125" style="19"/>
+    <col min="47" max="47" width="10.83203125" style="20"/>
+    <col min="48" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="18" customFormat="1" ht="15">
+    <row r="1" spans="1:47" s="18" customFormat="1" ht="15">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD1" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="7" t="s">
+      <c r="AP1" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="7" t="s">
+      <c r="AS1" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="AU1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="AN1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AO1" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="AP1" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="AQ1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AR1" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="AS1" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="AT1" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46" ht="15">
+    </row>
+    <row r="2" spans="1:47" ht="15">
       <c r="A2" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="9">
-        <v>9796</v>
-      </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="4" t="s">
+      <c r="J2" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="O2" s="14"/>
+      <c r="O2" s="15" t="s">
+        <v>350</v>
+      </c>
       <c r="P2" s="14"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="T2" s="12"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="12"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="U2" s="12"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="9"/>
       <c r="Z2" s="12"/>
       <c r="AA2" s="12"/>
       <c r="AB2" s="12"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="9"/>
       <c r="AF2" s="12"/>
       <c r="AG2" s="12"/>
       <c r="AH2" s="12"/>
       <c r="AI2" s="12"/>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="AT2" s="15"/>
-    </row>
-    <row r="3" spans="1:46" ht="15">
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="AU2" s="15"/>
+    </row>
+    <row r="3" spans="1:47" ht="15">
       <c r="A3" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12"/>
+      <c r="H3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="I3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="9">
-        <v>9796</v>
-      </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="14"/>
+      <c r="J3" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="9"/>
       <c r="M3" s="14"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="14" t="s">
-        <v>194</v>
-      </c>
+      <c r="N3" s="14"/>
+      <c r="O3" s="9"/>
       <c r="P3" s="14" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="R3" s="14"/>
+        <v>274</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>275</v>
+      </c>
       <c r="S3" s="14"/>
       <c r="T3" s="14"/>
       <c r="U3" s="14"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="12"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="9"/>
       <c r="Z3" s="12"/>
       <c r="AA3" s="12"/>
       <c r="AB3" s="12"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="9"/>
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
       <c r="AH3" s="12"/>
       <c r="AI3" s="12"/>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="4"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="14"/>
       <c r="AM3" s="4"/>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="15"/>
       <c r="AP3" s="4"/>
-      <c r="AQ3" s="15"/>
-      <c r="AR3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="15"/>
       <c r="AS3" s="4"/>
-      <c r="AT3" s="15"/>
-    </row>
-    <row r="4" spans="1:46" ht="15">
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="15"/>
+    </row>
+    <row r="4" spans="1:47" ht="15">
       <c r="A4" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="I4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="9">
-        <v>9796</v>
-      </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="14"/>
+      <c r="J4" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="9"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="9"/>
       <c r="P4" s="14"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="12"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="9"/>
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="9"/>
       <c r="Z4" s="12"/>
       <c r="AA4" s="12"/>
       <c r="AB4" s="12"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="9"/>
       <c r="AF4" s="12"/>
       <c r="AG4" s="12"/>
       <c r="AH4" s="12"/>
       <c r="AI4" s="12"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="14"/>
-      <c r="AL4" s="4"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="14"/>
       <c r="AM4" s="4"/>
-      <c r="AN4" s="15"/>
-      <c r="AO4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="15"/>
       <c r="AP4" s="4"/>
-      <c r="AQ4" s="15"/>
-      <c r="AR4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="15"/>
       <c r="AS4" s="4"/>
-      <c r="AT4" s="15"/>
-    </row>
-    <row r="5" spans="1:46" ht="15">
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="15"/>
+    </row>
+    <row r="5" spans="1:47" ht="15">
       <c r="A5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="12"/>
+      <c r="H5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="I5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="9">
-        <v>9796</v>
-      </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="14"/>
+      <c r="J5" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="9"/>
       <c r="M5" s="14"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="9"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="12"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="9"/>
       <c r="S5" s="12"/>
       <c r="T5" s="12"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="9"/>
       <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
       <c r="AB5" s="12"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="9"/>
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
       <c r="AH5" s="12"/>
       <c r="AI5" s="12"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="14"/>
-      <c r="AL5" s="4"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="14"/>
       <c r="AM5" s="4"/>
-      <c r="AN5" s="15"/>
-      <c r="AO5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="15"/>
       <c r="AP5" s="4"/>
-      <c r="AQ5" s="15"/>
-      <c r="AR5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="15"/>
       <c r="AS5" s="4"/>
-      <c r="AT5" s="15"/>
-    </row>
-    <row r="6" spans="1:46" ht="15">
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="15"/>
+    </row>
+    <row r="6" spans="1:47" ht="15">
       <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="I6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="9">
-        <v>9796</v>
-      </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="14"/>
+      <c r="J6" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="14"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="9"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="12"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="9"/>
       <c r="S6" s="12"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="9"/>
       <c r="Z6" s="12"/>
       <c r="AA6" s="12"/>
       <c r="AB6" s="12"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="9"/>
       <c r="AF6" s="12"/>
       <c r="AG6" s="12"/>
       <c r="AH6" s="12"/>
       <c r="AI6" s="12"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="14"/>
-      <c r="AL6" s="4"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="14"/>
       <c r="AM6" s="4"/>
-      <c r="AN6" s="15"/>
-      <c r="AO6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="15"/>
       <c r="AP6" s="4"/>
-      <c r="AQ6" s="15"/>
-      <c r="AR6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="15"/>
       <c r="AS6" s="4"/>
-      <c r="AT6" s="15"/>
-    </row>
-    <row r="7" spans="1:46" ht="15">
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="15"/>
+    </row>
+    <row r="7" spans="1:47" ht="15">
       <c r="A7" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C7" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="I7" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="9">
-        <v>9796</v>
-      </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="14" t="s">
+      <c r="J7" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="P7" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="M7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>276</v>
-      </c>
       <c r="Q7" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="R7" s="14"/>
+        <v>274</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>275</v>
+      </c>
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="12"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="9"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
       <c r="AB7" s="12"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="9"/>
       <c r="AF7" s="12"/>
       <c r="AG7" s="12"/>
       <c r="AH7" s="12"/>
       <c r="AI7" s="12"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="14"/>
-      <c r="AL7" s="4"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="14"/>
       <c r="AM7" s="4"/>
-      <c r="AN7" s="15"/>
-      <c r="AO7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="15"/>
       <c r="AP7" s="4"/>
-      <c r="AQ7" s="15"/>
-      <c r="AR7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="15"/>
       <c r="AS7" s="4"/>
-      <c r="AT7" s="15"/>
-    </row>
-    <row r="8" spans="1:46" ht="15">
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="15"/>
+    </row>
+    <row r="8" spans="1:47" ht="15">
       <c r="A8" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="E8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="I8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="9">
-        <v>9796</v>
-      </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="14"/>
+      <c r="J8" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="14"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="9"/>
       <c r="P8" s="14"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="12"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="9"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="9"/>
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="9"/>
       <c r="AF8" s="12"/>
       <c r="AG8" s="12"/>
       <c r="AH8" s="12"/>
       <c r="AI8" s="12"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="4"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="14"/>
       <c r="AM8" s="4"/>
-      <c r="AN8" s="15"/>
-      <c r="AO8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="15"/>
       <c r="AP8" s="4"/>
-      <c r="AQ8" s="15"/>
-      <c r="AR8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="15"/>
       <c r="AS8" s="4"/>
-      <c r="AT8" s="15"/>
-    </row>
-    <row r="9" spans="1:46" ht="15">
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="15"/>
+    </row>
+    <row r="9" spans="1:47" ht="15">
       <c r="A9" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="E9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="12"/>
+      <c r="H9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="I9" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="9">
-        <v>9796</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="14"/>
+      <c r="J9" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="14" t="s">
-        <v>194</v>
-      </c>
+      <c r="N9" s="14"/>
+      <c r="O9" s="9"/>
       <c r="P9" s="14" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="R9" s="14"/>
+        <v>274</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>275</v>
+      </c>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="12"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="9"/>
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
       <c r="AB9" s="12"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="9"/>
       <c r="AF9" s="12"/>
       <c r="AG9" s="12"/>
       <c r="AH9" s="12"/>
       <c r="AI9" s="12"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="4"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="14"/>
       <c r="AM9" s="4"/>
-      <c r="AN9" s="15"/>
-      <c r="AO9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="15"/>
       <c r="AP9" s="4"/>
-      <c r="AQ9" s="15"/>
-      <c r="AR9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="15"/>
       <c r="AS9" s="4"/>
-      <c r="AT9" s="15"/>
-    </row>
-    <row r="10" spans="1:46" ht="15">
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="15"/>
+    </row>
+    <row r="10" spans="1:47" ht="15">
       <c r="A10" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="12"/>
+      <c r="H10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="I10" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="9">
-        <v>9796</v>
-      </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="14"/>
+      <c r="J10" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="14" t="s">
-        <v>194</v>
-      </c>
+      <c r="N10" s="14"/>
+      <c r="O10" s="9"/>
       <c r="P10" s="14" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="R10" s="14"/>
+        <v>274</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>275</v>
+      </c>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="12"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="9"/>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
       <c r="AB10" s="12"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="9"/>
       <c r="AF10" s="12"/>
       <c r="AG10" s="12"/>
       <c r="AH10" s="12"/>
       <c r="AI10" s="12"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="14"/>
-      <c r="AL10" s="4"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="14"/>
       <c r="AM10" s="4"/>
-      <c r="AN10" s="15"/>
-      <c r="AO10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="15"/>
       <c r="AP10" s="4"/>
-      <c r="AQ10" s="15"/>
-      <c r="AR10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="15"/>
       <c r="AS10" s="4"/>
-      <c r="AT10" s="15"/>
-    </row>
-    <row r="11" spans="1:46" ht="15">
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="15"/>
+    </row>
+    <row r="11" spans="1:47" ht="15">
       <c r="A11" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C11" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="12"/>
+      <c r="H11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="I11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="9">
-        <v>9796</v>
-      </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="14"/>
+      <c r="J11" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="9"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="9"/>
       <c r="P11" s="14"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="12"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="9"/>
       <c r="S11" s="12"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="9"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
       <c r="AB11" s="12"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="9"/>
       <c r="AF11" s="12"/>
       <c r="AG11" s="12"/>
       <c r="AH11" s="12"/>
       <c r="AI11" s="12"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="14"/>
-      <c r="AL11" s="4"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="14"/>
       <c r="AM11" s="4"/>
-      <c r="AN11" s="15"/>
-      <c r="AO11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="15"/>
       <c r="AP11" s="4"/>
-      <c r="AQ11" s="15"/>
-      <c r="AR11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="15"/>
       <c r="AS11" s="4"/>
-      <c r="AT11" s="15"/>
-    </row>
-    <row r="12" spans="1:46" ht="15">
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="15"/>
+    </row>
+    <row r="12" spans="1:47" ht="15">
       <c r="A12" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="E12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="12"/>
+      <c r="H12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="I12" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="9">
-        <v>9796</v>
-      </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="14"/>
+      <c r="J12" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="14"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="9"/>
       <c r="P12" s="14"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="12"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="9"/>
       <c r="S12" s="12"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="9"/>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
       <c r="AB12" s="12"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="9"/>
       <c r="AF12" s="12"/>
       <c r="AG12" s="12"/>
       <c r="AH12" s="12"/>
       <c r="AI12" s="12"/>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="14"/>
-      <c r="AL12" s="4"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="14"/>
       <c r="AM12" s="4"/>
-      <c r="AN12" s="15"/>
-      <c r="AO12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="15"/>
       <c r="AP12" s="4"/>
-      <c r="AQ12" s="15"/>
-      <c r="AR12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="15"/>
       <c r="AS12" s="4"/>
-      <c r="AT12" s="15"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4584,3362 +4757,3498 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF166"/>
+  <dimension ref="A1:AG166"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="12"/>
     <col min="2" max="2" width="32.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="28" customWidth="1"/>
-    <col min="8" max="8" width="31.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="9"/>
-    <col min="14" max="14" width="10.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="9" customWidth="1"/>
-    <col min="16" max="16" width="18.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.83203125" style="14"/>
-    <col min="20" max="20" width="11.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14" style="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.83203125" style="13"/>
-    <col min="23" max="23" width="10.83203125" style="9"/>
-    <col min="24" max="24" width="10.83203125" style="14"/>
-    <col min="25" max="25" width="10.83203125" style="9"/>
-    <col min="26" max="26" width="10.83203125" style="14"/>
-    <col min="27" max="27" width="10.83203125" style="9"/>
-    <col min="28" max="28" width="10.83203125" style="14"/>
-    <col min="29" max="29" width="10.83203125" style="9"/>
-    <col min="30" max="16384" width="10.83203125" style="14"/>
+    <col min="3" max="3" width="27.83203125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="28" customWidth="1"/>
+    <col min="9" max="9" width="31.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="9"/>
+    <col min="15" max="15" width="10.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" style="9" customWidth="1"/>
+    <col min="17" max="17" width="18.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="14"/>
+    <col min="21" max="21" width="11.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14" style="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" style="13"/>
+    <col min="24" max="24" width="10.83203125" style="9"/>
+    <col min="25" max="25" width="10.83203125" style="14"/>
+    <col min="26" max="26" width="10.83203125" style="9"/>
+    <col min="27" max="27" width="10.83203125" style="14"/>
+    <col min="28" max="28" width="10.83203125" style="9"/>
+    <col min="29" max="29" width="10.83203125" style="14"/>
+    <col min="30" max="30" width="10.83203125" style="9"/>
+    <col min="31" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="6" customFormat="1">
+    <row r="1" spans="1:33" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="O1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q1" s="6" t="s">
+      <c r="X1" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="Z1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="W1" s="11" t="s">
+      <c r="AA1" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="AB1" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="X1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD1" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="AB1" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="AD1" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32">
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E2" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13" t="s">
+      <c r="G2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O2" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U2" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N2" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T2" s="14" t="s">
+      <c r="V2" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="X2" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="AF2" s="27"/>
-    </row>
-    <row r="3" spans="1:32">
+      <c r="Y2" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="AG2" s="27"/>
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E3" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>287</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13" t="s">
+      <c r="G3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="K3" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="K3" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O3" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U3" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N3" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T3" s="14" t="s">
+      <c r="V3" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32">
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E4" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
-        <v>287</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13" t="s">
+      <c r="G4" t="s">
+        <v>285</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="J4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="K4" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O4" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U4" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N4" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R4" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T4" s="14" t="s">
+      <c r="V4" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U4" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32">
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E5" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
-        <v>287</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13" t="s">
+      <c r="G5" t="s">
+        <v>285</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="J5" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="K5" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="K5" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O5" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U5" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N5" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R5" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T5" s="14" t="s">
+      <c r="V5" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32">
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E6" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
-        <v>287</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13" t="s">
+      <c r="G6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="J6" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="K6" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="K6" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O6" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U6" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N6" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S6" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T6" s="14" t="s">
+      <c r="V6" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32">
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E7" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13" t="s">
+      <c r="G7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="J7" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="K7" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="K7" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O7" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U7" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N7" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R7" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S7" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T7" s="14" t="s">
+      <c r="V7" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U7" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32">
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E8" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F8" t="s">
-        <v>287</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13" t="s">
+      <c r="G8" t="s">
+        <v>285</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="J8" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="K8" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="K8" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O8" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U8" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N8" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R8" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S8" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T8" s="14" t="s">
+      <c r="V8" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32">
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E9" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F9" t="s">
-        <v>287</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13" t="s">
+      <c r="G9" t="s">
+        <v>285</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="J9" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="K9" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="K9" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O9" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S9" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U9" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N9" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R9" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S9" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T9" s="14" t="s">
+      <c r="V9" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U9" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32">
+    </row>
+    <row r="10" spans="1:33">
       <c r="A10" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E10" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F10" t="s">
-        <v>287</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13" t="s">
+      <c r="G10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="J10" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="K10" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="K10" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O10" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U10" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N10" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R10" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S10" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T10" s="14" t="s">
+      <c r="V10" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U10" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32">
+    </row>
+    <row r="11" spans="1:33">
       <c r="A11" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D11" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E11" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F11" t="s">
-        <v>287</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13" t="s">
+      <c r="G11" t="s">
+        <v>285</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="J11" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="K11" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="K11" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O11" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U11" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N11" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R11" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S11" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T11" s="14" t="s">
+      <c r="V11" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U11" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32">
+    </row>
+    <row r="12" spans="1:33">
       <c r="A12" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D12" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E12" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F12" t="s">
-        <v>287</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13" t="s">
+      <c r="G12" t="s">
+        <v>285</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="J12" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="K12" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="J12" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O12" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S12" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U12" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N12" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R12" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S12" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T12" s="14" t="s">
+      <c r="V12" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U12" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32">
+    </row>
+    <row r="13" spans="1:33">
       <c r="A13" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D13" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E13" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F13" t="s">
-        <v>287</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13" t="s">
+      <c r="G13" t="s">
+        <v>285</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="J13" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="K13" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="K13" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O13" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S13" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U13" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N13" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="O13" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R13" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S13" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T13" s="14" t="s">
+      <c r="V13" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U13" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32">
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E14" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F14" t="s">
-        <v>287</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13" t="s">
+      <c r="G14" t="s">
+        <v>285</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="J14" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="K14" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="K14" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O14" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S14" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T14" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U14" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N14" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="O14" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R14" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S14" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T14" s="14" t="s">
+      <c r="V14" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U14" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32">
+    </row>
+    <row r="15" spans="1:33">
       <c r="A15" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E15" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F15" t="s">
-        <v>287</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13" t="s">
+      <c r="G15" t="s">
+        <v>285</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="J15" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="K15" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="M15" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O15" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S15" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T15" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U15" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N15" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="O15" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R15" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S15" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T15" s="14" t="s">
+      <c r="V15" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U15" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32">
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E16" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F16" t="s">
-        <v>287</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13" t="s">
+      <c r="G16" t="s">
+        <v>285</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="J16" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="K16" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="K16" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M16" s="9" t="s">
+      <c r="M16" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O16" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S16" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T16" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U16" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N16" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="O16" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R16" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S16" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T16" s="14" t="s">
+      <c r="V16" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U16" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E17" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F17" t="s">
-        <v>287</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13" t="s">
+      <c r="G17" t="s">
+        <v>285</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="J17" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="K17" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="K17" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="M17" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O17" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S17" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T17" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U17" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N17" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="O17" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R17" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S17" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T17" s="14" t="s">
+      <c r="V17" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U17" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D18" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E18" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F18" t="s">
-        <v>287</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13" t="s">
+      <c r="G18" t="s">
+        <v>285</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="J18" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="K18" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="K18" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L18" s="13" t="s">
+      <c r="L18" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M18" s="9" t="s">
+      <c r="M18" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O18" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S18" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T18" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U18" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N18" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="O18" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R18" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S18" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T18" s="14" t="s">
+      <c r="V18" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U18" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D19" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E19" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F19" t="s">
-        <v>287</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13" t="s">
+      <c r="G19" t="s">
+        <v>285</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="J19" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="K19" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="K19" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L19" s="13" t="s">
+      <c r="L19" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M19" s="9" t="s">
+      <c r="M19" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O19" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S19" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T19" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U19" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N19" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="O19" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R19" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S19" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T19" s="14" t="s">
+      <c r="V19" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U19" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D20" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E20" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F20" t="s">
-        <v>287</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13" t="s">
+      <c r="G20" t="s">
+        <v>285</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="J20" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="K20" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="K20" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M20" s="9" t="s">
+      <c r="M20" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O20" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S20" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T20" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U20" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N20" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="O20" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R20" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S20" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T20" s="14" t="s">
+      <c r="V20" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U20" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D21" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E21" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F21" t="s">
-        <v>287</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13" t="s">
+      <c r="G21" t="s">
+        <v>285</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="J21" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="K21" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="K21" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L21" s="13" t="s">
+      <c r="L21" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M21" s="9" t="s">
+      <c r="M21" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O21" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S21" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T21" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U21" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N21" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="O21" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R21" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S21" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T21" s="14" t="s">
+      <c r="V21" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U21" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E22" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F22" t="s">
-        <v>287</v>
-      </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13" t="s">
+      <c r="G22" t="s">
+        <v>285</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="J22" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="K22" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="K22" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L22" s="13" t="s">
+      <c r="L22" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M22" s="9" t="s">
+      <c r="M22" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O22" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S22" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T22" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U22" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N22" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="O22" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R22" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S22" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T22" s="14" t="s">
+      <c r="V22" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U22" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D23" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E23" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F23" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F23" t="s">
-        <v>287</v>
-      </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13" t="s">
+      <c r="G23" t="s">
+        <v>285</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="J23" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="K23" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="K23" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L23" s="13" t="s">
+      <c r="L23" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M23" s="9" t="s">
+      <c r="M23" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O23" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S23" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T23" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U23" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N23" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="O23" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R23" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S23" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T23" s="14" t="s">
+      <c r="V23" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U23" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D24" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E24" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F24" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F24" t="s">
-        <v>287</v>
-      </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13" t="s">
+      <c r="G24" t="s">
+        <v>285</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="J24" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="K24" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="K24" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L24" s="13" t="s">
+      <c r="L24" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M24" s="9" t="s">
+      <c r="M24" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O24" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S24" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T24" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U24" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N24" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="O24" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R24" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S24" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T24" s="14" t="s">
+      <c r="V24" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U24" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D25" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E25" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F25" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F25" t="s">
-        <v>287</v>
-      </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13" t="s">
+      <c r="G25" t="s">
+        <v>285</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="J25" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="K25" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="K25" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L25" s="13" t="s">
+      <c r="L25" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M25" s="9" t="s">
+      <c r="M25" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O25" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S25" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T25" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U25" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N25" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="O25" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R25" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S25" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T25" s="14" t="s">
+      <c r="V25" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U25" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D26" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E26" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F26" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F26" t="s">
-        <v>287</v>
-      </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13" t="s">
+      <c r="G26" t="s">
+        <v>285</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="J26" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J26" s="15" t="s">
+      <c r="K26" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="K26" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L26" s="13" t="s">
+      <c r="L26" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M26" s="9" t="s">
+      <c r="M26" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O26" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S26" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T26" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U26" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N26" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="O26" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R26" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S26" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T26" s="14" t="s">
+      <c r="V26" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U26" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D27" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E27" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F27" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F27" t="s">
-        <v>287</v>
-      </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="13" t="s">
+      <c r="G27" t="s">
+        <v>285</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="J27" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J27" s="15" t="s">
+      <c r="K27" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="K27" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L27" s="13" t="s">
+      <c r="L27" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M27" s="9" t="s">
+      <c r="M27" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O27" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S27" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T27" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U27" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N27" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="O27" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R27" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S27" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T27" s="14" t="s">
+      <c r="V27" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U27" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D28" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E28" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F28" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F28" t="s">
-        <v>287</v>
-      </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="13" t="s">
+      <c r="G28" t="s">
+        <v>285</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="J28" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="K28" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="K28" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L28" s="13" t="s">
+      <c r="L28" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M28" s="9" t="s">
+      <c r="M28" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O28" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S28" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T28" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U28" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N28" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="O28" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R28" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S28" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T28" s="14" t="s">
+      <c r="V28" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U28" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D29" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E29" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F29" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F29" t="s">
-        <v>287</v>
-      </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="13" t="s">
+      <c r="G29" t="s">
+        <v>285</v>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="I29" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="J29" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J29" s="15" t="s">
+      <c r="K29" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="K29" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L29" s="13" t="s">
+      <c r="L29" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M29" s="9" t="s">
+      <c r="M29" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O29" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S29" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T29" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U29" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N29" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="O29" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R29" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S29" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T29" s="14" t="s">
+      <c r="V29" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U29" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D30" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E30" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F30" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F30" t="s">
-        <v>287</v>
-      </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="13" t="s">
+      <c r="G30" t="s">
+        <v>285</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="J30" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J30" s="15" t="s">
+      <c r="K30" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="K30" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L30" s="13" t="s">
+      <c r="L30" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M30" s="9" t="s">
+      <c r="M30" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O30" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S30" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T30" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U30" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N30" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="O30" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R30" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S30" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T30" s="14" t="s">
+      <c r="V30" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U30" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D31" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E31" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F31" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F31" t="s">
-        <v>287</v>
-      </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="13" t="s">
+      <c r="G31" t="s">
+        <v>285</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="I31" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="J31" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J31" s="15" t="s">
+      <c r="K31" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="K31" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L31" s="13" t="s">
+      <c r="L31" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M31" s="9" t="s">
+      <c r="M31" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O31" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S31" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T31" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U31" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N31" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="O31" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R31" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S31" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T31" s="14" t="s">
+      <c r="V31" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U31" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D32" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E32" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F32" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F32" t="s">
-        <v>287</v>
-      </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="13" t="s">
+      <c r="G32" t="s">
+        <v>285</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="J32" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J32" s="15" t="s">
+      <c r="K32" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="K32" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L32" s="13" t="s">
+      <c r="L32" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M32" s="9" t="s">
+      <c r="M32" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O32" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S32" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T32" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U32" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N32" s="14">
-        <v>23.5</v>
-      </c>
-      <c r="O32" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R32" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S32" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T32" s="14" t="s">
+      <c r="V32" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U32" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E33" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F33" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F33" t="s">
-        <v>287</v>
-      </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="13" t="s">
+      <c r="G33" t="s">
+        <v>285</v>
+      </c>
+      <c r="H33" s="12"/>
+      <c r="I33" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="J33" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J33" s="15" t="s">
+      <c r="K33" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="K33" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L33" s="22">
+      <c r="L33" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="M33" s="22">
         <v>2008</v>
       </c>
-      <c r="M33" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="P33" s="14" t="s">
+      <c r="N33" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q33" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="R33" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="S33" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="Q33" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="R33" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="S33" s="14" t="s">
-        <v>198</v>
-      </c>
       <c r="T33" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U33" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="V33" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U33" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E34" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F34" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F34" t="s">
-        <v>287</v>
-      </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="13" t="s">
+      <c r="G34" t="s">
+        <v>285</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="J34" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J34" s="15" t="s">
+      <c r="K34" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="K34" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="L34" s="22">
+      <c r="L34" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="M34" s="22">
         <v>2002</v>
       </c>
-      <c r="M34" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="N34" s="14">
+      <c r="N34" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="O34" s="14">
         <v>34</v>
       </c>
-      <c r="O34" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="P34" s="14" t="s">
-        <v>167</v>
+      <c r="P34" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="Q34" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="R34" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="R34" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="S34" s="14" t="s">
-        <v>198</v>
+      <c r="S34" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="T34" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U34" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="V34" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U34" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E35" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F35" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F35" t="s">
-        <v>287</v>
-      </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="13" t="s">
+      <c r="G35" t="s">
+        <v>285</v>
+      </c>
+      <c r="H35" s="12"/>
+      <c r="I35" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I35" s="12" t="s">
+      <c r="J35" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J35" s="15" t="s">
+      <c r="K35" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="K35" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="L35" s="22">
+      <c r="L35" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="M35" s="22">
         <v>2010</v>
       </c>
-      <c r="M35" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="N35" s="14">
+      <c r="N35" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="O35" s="14">
         <v>16</v>
       </c>
-      <c r="O35" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="P35" s="14" t="s">
-        <v>167</v>
+      <c r="P35" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="Q35" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="R35" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="R35" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="S35" s="14" t="s">
-        <v>198</v>
+      <c r="S35" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="T35" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U35" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="V35" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U35" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E36" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F36" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F36" t="s">
-        <v>287</v>
-      </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="13" t="s">
+      <c r="G36" t="s">
+        <v>285</v>
+      </c>
+      <c r="H36" s="12"/>
+      <c r="I36" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="J36" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J36" s="15" t="s">
+      <c r="K36" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="K36" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="L36" s="22">
+      <c r="L36" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="M36" s="22">
         <v>2010</v>
       </c>
-      <c r="M36" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="N36" s="14">
+      <c r="N36" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="O36" s="14">
         <v>50</v>
       </c>
-      <c r="O36" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="P36" s="14" t="s">
+      <c r="P36" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q36" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="R36" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="S36" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="Q36" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="R36" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="S36" s="14" t="s">
-        <v>198</v>
-      </c>
       <c r="T36" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U36" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="V36" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U36" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E37" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F37" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F37" t="s">
-        <v>287</v>
-      </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="13" t="s">
+      <c r="G37" t="s">
+        <v>285</v>
+      </c>
+      <c r="H37" s="12"/>
+      <c r="I37" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="I37" s="12" t="s">
+      <c r="J37" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J37" s="15" t="s">
+      <c r="K37" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="K37" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L37" s="22">
+      <c r="L37" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="M37" s="22">
         <v>2010</v>
       </c>
-      <c r="M37" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="N37" s="14">
+      <c r="N37" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="O37" s="14">
         <v>4</v>
       </c>
-      <c r="O37" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="P37" s="4" t="s">
-        <v>163</v>
+      <c r="P37" s="9" t="s">
+        <v>184</v>
       </c>
       <c r="Q37" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="R37" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S37" s="14" t="s">
-        <v>198</v>
+      <c r="S37" s="15" t="s">
+        <v>161</v>
       </c>
       <c r="T37" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U37" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="V37" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U37" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E38" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F38" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F38" t="s">
-        <v>287</v>
-      </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="13" t="s">
+      <c r="G38" t="s">
+        <v>285</v>
+      </c>
+      <c r="H38" s="12"/>
+      <c r="I38" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="J38" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J38" s="15" t="s">
+      <c r="K38" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="K38" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L38" s="22">
+      <c r="L38" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="M38" s="22">
         <v>2010</v>
       </c>
-      <c r="M38" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="N38" s="14">
+      <c r="N38" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="O38" s="14">
         <v>4</v>
       </c>
-      <c r="O38" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="P38" s="4" t="s">
-        <v>163</v>
+      <c r="P38" s="9" t="s">
+        <v>184</v>
       </c>
       <c r="Q38" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R38" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="R38" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S38" s="14" t="s">
-        <v>198</v>
+      <c r="S38" s="15" t="s">
+        <v>161</v>
       </c>
       <c r="T38" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U38" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="V38" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U38" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E39" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F39" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F39" t="s">
-        <v>287</v>
-      </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="13" t="s">
+      <c r="G39" t="s">
+        <v>285</v>
+      </c>
+      <c r="H39" s="12"/>
+      <c r="I39" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="I39" s="12" t="s">
+      <c r="J39" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J39" s="15" t="s">
+      <c r="K39" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="K39" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L39" s="22">
+      <c r="L39" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="M39" s="22">
         <v>2010</v>
       </c>
-      <c r="M39" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="N39" s="14">
+      <c r="N39" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="O39" s="14">
         <v>4</v>
       </c>
-      <c r="O39" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="P39" s="4" t="s">
-        <v>163</v>
+      <c r="P39" s="9" t="s">
+        <v>184</v>
       </c>
       <c r="Q39" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R39" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="R39" s="15" t="s">
+      <c r="S39" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T39" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U39" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>285</v>
+      </c>
+      <c r="H40" s="12"/>
+      <c r="I40" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="L40" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="M40" s="22">
+        <v>2007</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q40" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="S39" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T39" s="14" t="s">
+      <c r="R40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S40" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="T40" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U40" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="V40" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U39" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
-      <c r="A40" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" t="s">
-        <v>287</v>
-      </c>
-      <c r="G40" s="12"/>
-      <c r="H40" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J40" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="K40" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="L40" s="22">
-        <v>2007</v>
-      </c>
-      <c r="M40" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="P40" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q40" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R40" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S40" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T40" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="U40" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E41" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F41" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F41" t="s">
-        <v>287</v>
-      </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="13" t="s">
+      <c r="G41" t="s">
+        <v>285</v>
+      </c>
+      <c r="H41" s="12"/>
+      <c r="I41" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="I41" s="12" t="s">
+      <c r="J41" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J41" s="15" t="s">
+      <c r="K41" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="K41" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L41" s="22">
+      <c r="L41" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="M41" s="22">
         <v>2011</v>
       </c>
-      <c r="M41" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>163</v>
+      <c r="N41" s="9" t="s">
+        <v>184</v>
       </c>
       <c r="Q41" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R41" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="R41" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S41" s="14" t="s">
-        <v>198</v>
+      <c r="S41" s="15" t="s">
+        <v>161</v>
       </c>
       <c r="T41" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U41" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="V41" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U41" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E42" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F42" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F42" t="s">
-        <v>287</v>
-      </c>
-      <c r="G42" s="12"/>
-      <c r="H42" s="13" t="s">
+      <c r="G42" t="s">
+        <v>285</v>
+      </c>
+      <c r="H42" s="12"/>
+      <c r="I42" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="I42" s="12" t="s">
+      <c r="J42" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J42" s="15" t="s">
+      <c r="K42" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="K42" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L42" s="22">
+      <c r="L42" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="M42" s="22">
         <v>2011</v>
       </c>
-      <c r="M42" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="P42" s="4" t="s">
-        <v>163</v>
+      <c r="N42" s="9" t="s">
+        <v>184</v>
       </c>
       <c r="Q42" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R42" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="R42" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S42" s="14" t="s">
-        <v>198</v>
+      <c r="S42" s="15" t="s">
+        <v>161</v>
       </c>
       <c r="T42" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U42" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="V42" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U42" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E43" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F43" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F43" t="s">
-        <v>287</v>
-      </c>
-      <c r="G43" s="12"/>
-      <c r="H43" s="13" t="s">
+      <c r="G43" t="s">
+        <v>285</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="J43" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J43" s="15" t="s">
+      <c r="K43" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="K43" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L43" s="13" t="s">
+      <c r="L43" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M43" s="9" t="s">
+      <c r="M43" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O43" s="14">
+        <v>340</v>
+      </c>
+      <c r="P43" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q43" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S43" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="T43" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U43" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="N43" s="14">
-        <v>340</v>
-      </c>
-      <c r="O43" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="P43" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q43" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R43" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="S43" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="T43" s="14" t="s">
+      <c r="V43" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U43" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21">
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E44" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F44" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F44" t="s">
-        <v>287</v>
-      </c>
-      <c r="G44" s="12"/>
-      <c r="H44" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="I44" s="12" t="s">
+      <c r="G44" t="s">
+        <v>285</v>
+      </c>
+      <c r="H44" s="12"/>
+      <c r="I44" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="J44" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J44" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="K44" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L44" s="22">
+      <c r="K44" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="M44" s="22">
         <v>2007</v>
       </c>
-      <c r="M44" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="P44" s="4" t="s">
-        <v>163</v>
+      <c r="N44" s="9" t="s">
+        <v>184</v>
       </c>
       <c r="Q44" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R44" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="R44" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="S44" s="14" t="s">
-        <v>198</v>
+      <c r="S44" s="15" t="s">
+        <v>161</v>
       </c>
       <c r="T44" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U44" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="V44" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U44" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="14" t="s">
-        <v>286</v>
-      </c>
       <c r="E45" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F45" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F45" t="s">
-        <v>287</v>
-      </c>
-      <c r="G45" s="12"/>
-      <c r="H45" s="13" t="s">
+      <c r="G45" t="s">
+        <v>285</v>
+      </c>
+      <c r="H45" s="12"/>
+      <c r="I45" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="J45" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J45" s="15" t="s">
+      <c r="K45" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="K45" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="L45" s="23">
+      <c r="L45" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="M45" s="23">
         <v>2008</v>
       </c>
-      <c r="M45" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="P45" s="4" t="s">
+      <c r="N45" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="R45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S45" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="Q45" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R45" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="S45" s="14" t="s">
-        <v>198</v>
-      </c>
       <c r="T45" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="U45" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="V45" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="U45" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21">
+    </row>
+    <row r="46" spans="1:22">
       <c r="B46" s="12"/>
-      <c r="C46" s="9"/>
-    </row>
-    <row r="47" spans="1:21">
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="1:22">
       <c r="B47" s="12"/>
-      <c r="C47" s="9"/>
-    </row>
-    <row r="48" spans="1:21">
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="1:22">
       <c r="B48" s="12"/>
-      <c r="C48" s="9"/>
-    </row>
-    <row r="49" spans="2:3">
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="2:4">
       <c r="B49" s="12"/>
-      <c r="C49" s="9"/>
-    </row>
-    <row r="50" spans="2:3">
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="2:4">
       <c r="B50" s="12"/>
-      <c r="C50" s="9"/>
-    </row>
-    <row r="51" spans="2:3">
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="2:4">
       <c r="B51" s="12"/>
-      <c r="C51" s="9"/>
-    </row>
-    <row r="52" spans="2:3">
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="2:4">
       <c r="B52" s="12"/>
-      <c r="C52" s="9"/>
-    </row>
-    <row r="53" spans="2:3">
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53" spans="2:4">
       <c r="B53" s="12"/>
-      <c r="C53" s="9"/>
-    </row>
-    <row r="54" spans="2:3">
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" spans="2:4">
       <c r="B54" s="12"/>
-      <c r="C54" s="9"/>
-    </row>
-    <row r="55" spans="2:3">
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" spans="2:4">
       <c r="B55" s="12"/>
-      <c r="C55" s="9"/>
-    </row>
-    <row r="56" spans="2:3">
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="2:4">
       <c r="B56" s="12"/>
-      <c r="C56" s="9"/>
-    </row>
-    <row r="57" spans="2:3">
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57" spans="2:4">
       <c r="B57" s="12"/>
-      <c r="C57" s="9"/>
-    </row>
-    <row r="58" spans="2:3">
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" spans="2:4">
       <c r="B58" s="12"/>
-      <c r="C58" s="9"/>
-    </row>
-    <row r="59" spans="2:3">
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" spans="2:4">
       <c r="B59" s="12"/>
-      <c r="C59" s="9"/>
-    </row>
-    <row r="60" spans="2:3">
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="2:4">
       <c r="B60" s="12"/>
-      <c r="C60" s="9"/>
-    </row>
-    <row r="61" spans="2:3">
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" spans="2:4">
       <c r="B61" s="12"/>
-      <c r="C61" s="9"/>
-    </row>
-    <row r="62" spans="2:3">
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62" spans="2:4">
       <c r="B62" s="12"/>
-      <c r="C62" s="9"/>
-    </row>
-    <row r="63" spans="2:3">
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="2:4">
       <c r="B63" s="12"/>
-      <c r="C63" s="9"/>
-    </row>
-    <row r="64" spans="2:3">
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" spans="2:4">
       <c r="B64" s="12"/>
-      <c r="C64" s="9"/>
-    </row>
-    <row r="65" spans="2:3">
+      <c r="D64" s="9"/>
+    </row>
+    <row r="65" spans="2:4">
       <c r="B65" s="12"/>
-      <c r="C65" s="9"/>
-    </row>
-    <row r="66" spans="2:3">
+      <c r="D65" s="9"/>
+    </row>
+    <row r="66" spans="2:4">
       <c r="B66" s="12"/>
-      <c r="C66" s="9"/>
-    </row>
-    <row r="67" spans="2:3">
+      <c r="D66" s="9"/>
+    </row>
+    <row r="67" spans="2:4">
       <c r="B67" s="12"/>
-      <c r="C67" s="9"/>
-    </row>
-    <row r="68" spans="2:3">
+      <c r="D67" s="9"/>
+    </row>
+    <row r="68" spans="2:4">
       <c r="B68" s="12"/>
-      <c r="C68" s="9"/>
-    </row>
-    <row r="69" spans="2:3">
+      <c r="D68" s="9"/>
+    </row>
+    <row r="69" spans="2:4">
       <c r="B69" s="12"/>
-      <c r="C69" s="9"/>
-    </row>
-    <row r="70" spans="2:3">
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="2:4">
       <c r="B70" s="12"/>
-      <c r="C70" s="9"/>
-    </row>
-    <row r="71" spans="2:3">
+      <c r="D70" s="9"/>
+    </row>
+    <row r="71" spans="2:4">
       <c r="B71" s="12"/>
-      <c r="C71" s="9"/>
-    </row>
-    <row r="72" spans="2:3">
+      <c r="D71" s="9"/>
+    </row>
+    <row r="72" spans="2:4">
       <c r="B72" s="12"/>
-      <c r="C72" s="9"/>
-    </row>
-    <row r="73" spans="2:3">
+      <c r="D72" s="9"/>
+    </row>
+    <row r="73" spans="2:4">
       <c r="B73" s="12"/>
-      <c r="C73" s="9"/>
-    </row>
-    <row r="74" spans="2:3">
+      <c r="D73" s="9"/>
+    </row>
+    <row r="74" spans="2:4">
       <c r="B74" s="12"/>
-      <c r="C74" s="9"/>
-    </row>
-    <row r="75" spans="2:3">
+      <c r="D74" s="9"/>
+    </row>
+    <row r="75" spans="2:4">
       <c r="B75" s="12"/>
-      <c r="C75" s="9"/>
-    </row>
-    <row r="76" spans="2:3">
+      <c r="D75" s="9"/>
+    </row>
+    <row r="76" spans="2:4">
       <c r="B76" s="12"/>
-      <c r="C76" s="9"/>
-    </row>
-    <row r="77" spans="2:3">
+      <c r="D76" s="9"/>
+    </row>
+    <row r="77" spans="2:4">
       <c r="B77" s="12"/>
-      <c r="C77" s="9"/>
-    </row>
-    <row r="78" spans="2:3">
+      <c r="D77" s="9"/>
+    </row>
+    <row r="78" spans="2:4">
       <c r="B78" s="12"/>
-      <c r="C78" s="9"/>
-    </row>
-    <row r="79" spans="2:3">
+      <c r="D78" s="9"/>
+    </row>
+    <row r="79" spans="2:4">
       <c r="B79" s="12"/>
-      <c r="C79" s="9"/>
-    </row>
-    <row r="80" spans="2:3">
+      <c r="D79" s="9"/>
+    </row>
+    <row r="80" spans="2:4">
       <c r="B80" s="12"/>
-      <c r="C80" s="9"/>
-    </row>
-    <row r="81" spans="2:3">
+      <c r="D80" s="9"/>
+    </row>
+    <row r="81" spans="2:4">
       <c r="B81" s="12"/>
-      <c r="C81" s="9"/>
-    </row>
-    <row r="82" spans="2:3">
+      <c r="D81" s="9"/>
+    </row>
+    <row r="82" spans="2:4">
       <c r="B82" s="12"/>
-      <c r="C82" s="9"/>
-    </row>
-    <row r="83" spans="2:3">
+      <c r="D82" s="9"/>
+    </row>
+    <row r="83" spans="2:4">
       <c r="B83" s="12"/>
-      <c r="C83" s="9"/>
-    </row>
-    <row r="84" spans="2:3">
+      <c r="D83" s="9"/>
+    </row>
+    <row r="84" spans="2:4">
       <c r="B84" s="12"/>
-      <c r="C84" s="9"/>
-    </row>
-    <row r="85" spans="2:3">
+      <c r="D84" s="9"/>
+    </row>
+    <row r="85" spans="2:4">
       <c r="B85" s="12"/>
-      <c r="C85" s="9"/>
-    </row>
-    <row r="86" spans="2:3">
+      <c r="D85" s="9"/>
+    </row>
+    <row r="86" spans="2:4">
       <c r="B86" s="12"/>
-      <c r="C86" s="9"/>
-    </row>
-    <row r="87" spans="2:3">
+      <c r="D86" s="9"/>
+    </row>
+    <row r="87" spans="2:4">
       <c r="B87" s="12"/>
-      <c r="C87" s="9"/>
-    </row>
-    <row r="88" spans="2:3">
+      <c r="D87" s="9"/>
+    </row>
+    <row r="88" spans="2:4">
       <c r="B88" s="12"/>
-      <c r="C88" s="9"/>
-    </row>
-    <row r="89" spans="2:3">
+      <c r="D88" s="9"/>
+    </row>
+    <row r="89" spans="2:4">
       <c r="B89" s="12"/>
-      <c r="C89" s="9"/>
-    </row>
-    <row r="90" spans="2:3">
+      <c r="D89" s="9"/>
+    </row>
+    <row r="90" spans="2:4">
       <c r="B90" s="12"/>
-      <c r="C90" s="9"/>
-    </row>
-    <row r="91" spans="2:3">
+      <c r="D90" s="9"/>
+    </row>
+    <row r="91" spans="2:4">
       <c r="B91" s="12"/>
-      <c r="C91" s="9"/>
-    </row>
-    <row r="92" spans="2:3">
+      <c r="D91" s="9"/>
+    </row>
+    <row r="92" spans="2:4">
       <c r="B92" s="12"/>
-      <c r="C92" s="9"/>
-    </row>
-    <row r="93" spans="2:3">
+      <c r="D92" s="9"/>
+    </row>
+    <row r="93" spans="2:4">
       <c r="B93" s="12"/>
-      <c r="C93" s="9"/>
-    </row>
-    <row r="94" spans="2:3">
+      <c r="D93" s="9"/>
+    </row>
+    <row r="94" spans="2:4">
       <c r="B94" s="12"/>
-      <c r="C94" s="9"/>
-    </row>
-    <row r="95" spans="2:3">
+      <c r="D94" s="9"/>
+    </row>
+    <row r="95" spans="2:4">
       <c r="B95" s="12"/>
-      <c r="C95" s="9"/>
-    </row>
-    <row r="96" spans="2:3">
+      <c r="D95" s="9"/>
+    </row>
+    <row r="96" spans="2:4">
       <c r="B96" s="12"/>
-      <c r="C96" s="9"/>
-    </row>
-    <row r="97" spans="2:3">
+      <c r="D96" s="9"/>
+    </row>
+    <row r="97" spans="2:4">
       <c r="B97" s="12"/>
-      <c r="C97" s="9"/>
-    </row>
-    <row r="98" spans="2:3">
+      <c r="D97" s="9"/>
+    </row>
+    <row r="98" spans="2:4">
       <c r="B98" s="12"/>
-      <c r="C98" s="9"/>
-    </row>
-    <row r="99" spans="2:3">
+      <c r="D98" s="9"/>
+    </row>
+    <row r="99" spans="2:4">
       <c r="B99" s="12"/>
-      <c r="C99" s="9"/>
-    </row>
-    <row r="100" spans="2:3">
+      <c r="D99" s="9"/>
+    </row>
+    <row r="100" spans="2:4">
       <c r="B100" s="12"/>
-      <c r="C100" s="9"/>
-    </row>
-    <row r="101" spans="2:3">
+      <c r="D100" s="9"/>
+    </row>
+    <row r="101" spans="2:4">
       <c r="B101" s="12"/>
-      <c r="C101" s="9"/>
-    </row>
-    <row r="102" spans="2:3">
+      <c r="D101" s="9"/>
+    </row>
+    <row r="102" spans="2:4">
       <c r="B102" s="12"/>
-      <c r="C102" s="9"/>
-    </row>
-    <row r="103" spans="2:3">
+      <c r="D102" s="9"/>
+    </row>
+    <row r="103" spans="2:4">
       <c r="B103" s="12"/>
-      <c r="C103" s="9"/>
-    </row>
-    <row r="104" spans="2:3">
+      <c r="D103" s="9"/>
+    </row>
+    <row r="104" spans="2:4">
       <c r="B104" s="12"/>
-      <c r="C104" s="9"/>
-    </row>
-    <row r="105" spans="2:3">
+      <c r="D104" s="9"/>
+    </row>
+    <row r="105" spans="2:4">
       <c r="B105" s="12"/>
-      <c r="C105" s="9"/>
-    </row>
-    <row r="106" spans="2:3">
+      <c r="D105" s="9"/>
+    </row>
+    <row r="106" spans="2:4">
       <c r="B106" s="12"/>
-      <c r="C106" s="9"/>
-    </row>
-    <row r="107" spans="2:3">
+      <c r="D106" s="9"/>
+    </row>
+    <row r="107" spans="2:4">
       <c r="B107" s="12"/>
-      <c r="C107" s="9"/>
-    </row>
-    <row r="108" spans="2:3">
+      <c r="D107" s="9"/>
+    </row>
+    <row r="108" spans="2:4">
       <c r="B108" s="12"/>
-      <c r="C108" s="9"/>
-    </row>
-    <row r="109" spans="2:3">
+      <c r="D108" s="9"/>
+    </row>
+    <row r="109" spans="2:4">
       <c r="B109" s="12"/>
-      <c r="C109" s="9"/>
-    </row>
-    <row r="110" spans="2:3">
+      <c r="D109" s="9"/>
+    </row>
+    <row r="110" spans="2:4">
       <c r="B110" s="12"/>
-      <c r="C110" s="9"/>
-    </row>
-    <row r="111" spans="2:3">
+      <c r="D110" s="9"/>
+    </row>
+    <row r="111" spans="2:4">
       <c r="B111" s="12"/>
-      <c r="C111" s="9"/>
-    </row>
-    <row r="112" spans="2:3">
+      <c r="D111" s="9"/>
+    </row>
+    <row r="112" spans="2:4">
       <c r="B112" s="12"/>
-      <c r="C112" s="9"/>
-    </row>
-    <row r="113" spans="2:3">
+      <c r="D112" s="9"/>
+    </row>
+    <row r="113" spans="2:4">
       <c r="B113" s="12"/>
-      <c r="C113" s="9"/>
-    </row>
-    <row r="114" spans="2:3">
+      <c r="D113" s="9"/>
+    </row>
+    <row r="114" spans="2:4">
       <c r="B114" s="12"/>
-      <c r="C114" s="9"/>
-    </row>
-    <row r="115" spans="2:3">
+      <c r="D114" s="9"/>
+    </row>
+    <row r="115" spans="2:4">
       <c r="B115" s="12"/>
-      <c r="C115" s="9"/>
-    </row>
-    <row r="116" spans="2:3">
+      <c r="D115" s="9"/>
+    </row>
+    <row r="116" spans="2:4">
       <c r="B116" s="12"/>
-      <c r="C116" s="9"/>
-    </row>
-    <row r="117" spans="2:3">
+      <c r="D116" s="9"/>
+    </row>
+    <row r="117" spans="2:4">
       <c r="B117" s="12"/>
-      <c r="C117" s="9"/>
-    </row>
-    <row r="118" spans="2:3">
+      <c r="D117" s="9"/>
+    </row>
+    <row r="118" spans="2:4">
       <c r="B118" s="12"/>
-      <c r="C118" s="9"/>
-    </row>
-    <row r="119" spans="2:3">
+      <c r="D118" s="9"/>
+    </row>
+    <row r="119" spans="2:4">
       <c r="B119" s="12"/>
-      <c r="C119" s="9"/>
-    </row>
-    <row r="120" spans="2:3">
+      <c r="D119" s="9"/>
+    </row>
+    <row r="120" spans="2:4">
       <c r="B120" s="12"/>
-      <c r="C120" s="9"/>
-    </row>
-    <row r="121" spans="2:3">
+      <c r="D120" s="9"/>
+    </row>
+    <row r="121" spans="2:4">
       <c r="B121" s="12"/>
-      <c r="C121" s="9"/>
-    </row>
-    <row r="122" spans="2:3">
+      <c r="D121" s="9"/>
+    </row>
+    <row r="122" spans="2:4">
       <c r="B122" s="12"/>
-      <c r="C122" s="9"/>
-    </row>
-    <row r="123" spans="2:3">
+      <c r="D122" s="9"/>
+    </row>
+    <row r="123" spans="2:4">
       <c r="B123" s="12"/>
-      <c r="C123" s="9"/>
-    </row>
-    <row r="124" spans="2:3">
+      <c r="D123" s="9"/>
+    </row>
+    <row r="124" spans="2:4">
       <c r="B124" s="12"/>
-      <c r="C124" s="9"/>
-    </row>
-    <row r="125" spans="2:3">
+      <c r="D124" s="9"/>
+    </row>
+    <row r="125" spans="2:4">
       <c r="B125" s="12"/>
-      <c r="C125" s="9"/>
-    </row>
-    <row r="126" spans="2:3">
+      <c r="D125" s="9"/>
+    </row>
+    <row r="126" spans="2:4">
       <c r="B126" s="12"/>
-      <c r="C126" s="9"/>
-    </row>
-    <row r="127" spans="2:3">
+      <c r="D126" s="9"/>
+    </row>
+    <row r="127" spans="2:4">
       <c r="B127" s="12"/>
-      <c r="C127" s="9"/>
-    </row>
-    <row r="128" spans="2:3">
+      <c r="D127" s="9"/>
+    </row>
+    <row r="128" spans="2:4">
       <c r="B128" s="12"/>
-      <c r="C128" s="9"/>
-    </row>
-    <row r="129" spans="2:3">
+      <c r="D128" s="9"/>
+    </row>
+    <row r="129" spans="2:4">
       <c r="B129" s="12"/>
-      <c r="C129" s="9"/>
-    </row>
-    <row r="130" spans="2:3">
+      <c r="D129" s="9"/>
+    </row>
+    <row r="130" spans="2:4">
       <c r="B130" s="12"/>
-      <c r="C130" s="9"/>
-    </row>
-    <row r="131" spans="2:3">
+      <c r="D130" s="9"/>
+    </row>
+    <row r="131" spans="2:4">
       <c r="B131" s="12"/>
-      <c r="C131" s="9"/>
-    </row>
-    <row r="132" spans="2:3">
+      <c r="D131" s="9"/>
+    </row>
+    <row r="132" spans="2:4">
       <c r="B132" s="12"/>
-      <c r="C132" s="9"/>
-    </row>
-    <row r="133" spans="2:3">
+      <c r="D132" s="9"/>
+    </row>
+    <row r="133" spans="2:4">
       <c r="B133" s="12"/>
-      <c r="C133" s="9"/>
-    </row>
-    <row r="134" spans="2:3">
+      <c r="D133" s="9"/>
+    </row>
+    <row r="134" spans="2:4">
       <c r="B134" s="12"/>
-      <c r="C134" s="9"/>
-    </row>
-    <row r="135" spans="2:3">
+      <c r="D134" s="9"/>
+    </row>
+    <row r="135" spans="2:4">
       <c r="B135" s="12"/>
-      <c r="C135" s="9"/>
-    </row>
-    <row r="136" spans="2:3">
+      <c r="D135" s="9"/>
+    </row>
+    <row r="136" spans="2:4">
       <c r="B136" s="12"/>
-      <c r="C136" s="9"/>
-    </row>
-    <row r="137" spans="2:3">
+      <c r="D136" s="9"/>
+    </row>
+    <row r="137" spans="2:4">
       <c r="B137" s="12"/>
-      <c r="C137" s="9"/>
-    </row>
-    <row r="138" spans="2:3">
+      <c r="D137" s="9"/>
+    </row>
+    <row r="138" spans="2:4">
       <c r="B138" s="12"/>
-      <c r="C138" s="9"/>
-    </row>
-    <row r="139" spans="2:3">
+      <c r="D138" s="9"/>
+    </row>
+    <row r="139" spans="2:4">
       <c r="B139" s="12"/>
-      <c r="C139" s="9"/>
-    </row>
-    <row r="140" spans="2:3">
+      <c r="D139" s="9"/>
+    </row>
+    <row r="140" spans="2:4">
       <c r="B140" s="12"/>
-      <c r="C140" s="9"/>
-    </row>
-    <row r="141" spans="2:3">
+      <c r="D140" s="9"/>
+    </row>
+    <row r="141" spans="2:4">
       <c r="B141" s="12"/>
-      <c r="C141" s="9"/>
-    </row>
-    <row r="142" spans="2:3">
+      <c r="D141" s="9"/>
+    </row>
+    <row r="142" spans="2:4">
       <c r="B142" s="12"/>
-      <c r="C142" s="9"/>
-    </row>
-    <row r="143" spans="2:3">
+      <c r="D142" s="9"/>
+    </row>
+    <row r="143" spans="2:4">
       <c r="B143" s="12"/>
-      <c r="C143" s="9"/>
-    </row>
-    <row r="144" spans="2:3">
+      <c r="D143" s="9"/>
+    </row>
+    <row r="144" spans="2:4">
       <c r="B144" s="12"/>
-      <c r="C144" s="9"/>
-    </row>
-    <row r="145" spans="2:3">
+      <c r="D144" s="9"/>
+    </row>
+    <row r="145" spans="2:4">
       <c r="B145" s="12"/>
-      <c r="C145" s="9"/>
-    </row>
-    <row r="146" spans="2:3">
+      <c r="D145" s="9"/>
+    </row>
+    <row r="146" spans="2:4">
       <c r="B146" s="12"/>
-      <c r="C146" s="9"/>
-    </row>
-    <row r="147" spans="2:3">
+      <c r="D146" s="9"/>
+    </row>
+    <row r="147" spans="2:4">
       <c r="B147" s="12"/>
-      <c r="C147" s="9"/>
-    </row>
-    <row r="148" spans="2:3">
+      <c r="D147" s="9"/>
+    </row>
+    <row r="148" spans="2:4">
       <c r="B148" s="12"/>
-      <c r="C148" s="9"/>
-    </row>
-    <row r="149" spans="2:3">
+      <c r="D148" s="9"/>
+    </row>
+    <row r="149" spans="2:4">
       <c r="B149" s="12"/>
-      <c r="C149" s="9"/>
-    </row>
-    <row r="150" spans="2:3">
+      <c r="D149" s="9"/>
+    </row>
+    <row r="150" spans="2:4">
       <c r="B150" s="12"/>
-      <c r="C150" s="9"/>
-    </row>
-    <row r="151" spans="2:3">
+      <c r="D150" s="9"/>
+    </row>
+    <row r="151" spans="2:4">
       <c r="B151" s="12"/>
-      <c r="C151" s="9"/>
-    </row>
-    <row r="152" spans="2:3">
+      <c r="D151" s="9"/>
+    </row>
+    <row r="152" spans="2:4">
       <c r="B152" s="12"/>
-      <c r="C152" s="9"/>
-    </row>
-    <row r="153" spans="2:3">
+      <c r="D152" s="9"/>
+    </row>
+    <row r="153" spans="2:4">
       <c r="B153" s="12"/>
-      <c r="C153" s="9"/>
-    </row>
-    <row r="154" spans="2:3">
+      <c r="D153" s="9"/>
+    </row>
+    <row r="154" spans="2:4">
       <c r="B154" s="12"/>
-      <c r="C154" s="9"/>
-    </row>
-    <row r="155" spans="2:3">
+      <c r="D154" s="9"/>
+    </row>
+    <row r="155" spans="2:4">
       <c r="B155" s="12"/>
-      <c r="C155" s="9"/>
-    </row>
-    <row r="156" spans="2:3">
+      <c r="D155" s="9"/>
+    </row>
+    <row r="156" spans="2:4">
       <c r="B156" s="12"/>
-      <c r="C156" s="9"/>
-    </row>
-    <row r="157" spans="2:3">
+      <c r="D156" s="9"/>
+    </row>
+    <row r="157" spans="2:4">
       <c r="B157" s="12"/>
-      <c r="C157" s="9"/>
-    </row>
-    <row r="158" spans="2:3">
+      <c r="D157" s="9"/>
+    </row>
+    <row r="158" spans="2:4">
       <c r="B158" s="12"/>
-      <c r="C158" s="9"/>
-    </row>
-    <row r="159" spans="2:3">
+      <c r="D158" s="9"/>
+    </row>
+    <row r="159" spans="2:4">
       <c r="B159" s="12"/>
-      <c r="C159" s="9"/>
-    </row>
-    <row r="160" spans="2:3">
+      <c r="D159" s="9"/>
+    </row>
+    <row r="160" spans="2:4">
       <c r="B160" s="12"/>
-      <c r="C160" s="9"/>
-    </row>
-    <row r="161" spans="2:3">
+      <c r="D160" s="9"/>
+    </row>
+    <row r="161" spans="2:4">
       <c r="B161" s="12"/>
-      <c r="C161" s="9"/>
-    </row>
-    <row r="162" spans="2:3">
+      <c r="D161" s="9"/>
+    </row>
+    <row r="162" spans="2:4">
       <c r="B162" s="12"/>
-      <c r="C162" s="9"/>
-    </row>
-    <row r="163" spans="2:3">
+      <c r="D162" s="9"/>
+    </row>
+    <row r="163" spans="2:4">
       <c r="B163" s="12"/>
-      <c r="C163" s="9"/>
-    </row>
-    <row r="164" spans="2:3">
+      <c r="D163" s="9"/>
+    </row>
+    <row r="164" spans="2:4">
       <c r="B164" s="12"/>
-      <c r="C164" s="9"/>
-    </row>
-    <row r="165" spans="2:3">
+      <c r="D164" s="9"/>
+    </row>
+    <row r="165" spans="2:4">
       <c r="B165" s="12"/>
-      <c r="C165" s="9"/>
-    </row>
-    <row r="166" spans="2:3">
+      <c r="D165" s="9"/>
+    </row>
+    <row r="166" spans="2:4">
       <c r="B166" s="12"/>
-      <c r="C166" s="9"/>
+      <c r="D166" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
